--- a/02.Hardware/MK2 PCBs/02.CONNECTORS/00.Dual/BOM/Connectors_MK2_Dual-BOM.xlsx
+++ b/02.Hardware/MK2 PCBs/02.CONNECTORS/00.Dual/BOM/Connectors_MK2_Dual-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reozen/Team Dropbox/David Garrido/MUSOTOKU/PROJECTS/MK2/01.Documentation/02.Fabricacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reozen/Team Dropbox/David Garrido/MUSOTOKU/PROJECTS/MK2/02.Hardware/MK2 PCBs/02.CONNECTORS/00.Dual/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E395F-D25F-264E-9C84-413403CB9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A453AC70-8658-E042-A866-C08D4698EB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="1420" windowWidth="38400" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Qty</t>
   </si>
@@ -120,12 +120,6 @@
     <t>N-channel MOSFETs</t>
   </si>
   <si>
-    <t>ACJS-MHDR</t>
-  </si>
-  <si>
-    <t>CONN_MHDR_AMP</t>
-  </si>
-  <si>
     <t>MACHINE1, MACHINE2, PEDAL</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>J.Rodriguez</t>
   </si>
   <si>
-    <t>889-1817-ND</t>
-  </si>
-  <si>
     <t>2N7002W-FDICT-ND</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
   </si>
   <si>
     <t>2156-SI4425DY-ND</t>
-  </si>
-  <si>
-    <t>BOM VERSION v1</t>
   </si>
   <si>
     <t>CONNECTORS_MK2_DUAL_v1</t>
@@ -239,6 +227,27 @@
   <si>
     <t>SI4459ADY-T1-GE3
 AOSP21313C</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>ACJS-MHOM</t>
+  </si>
+  <si>
+    <t>7 MARZO 2023</t>
+  </si>
+  <si>
+    <t>BOM VERSION v2</t>
+  </si>
+  <si>
+    <t>7 marzo 2023</t>
+  </si>
+  <si>
+    <t>d.garrido</t>
+  </si>
+  <si>
+    <t>Pos 8, conector 6,35mm de amphenol estaba mal seleccionado. No es el correcto</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1150,7 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1156,7 +1165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1193,22 +1201,17 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,35 +1255,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,475 +1765,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F736CA9-D4DF-461D-AC14-C3FE5FA17738}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="B1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="18" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="I2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" s="17" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="19">
+        <v>7</v>
+      </c>
+      <c r="E13" s="31">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="19">
+        <v>8</v>
+      </c>
+      <c r="E14" s="31">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="I2" s="4">
-        <v>44708</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="8"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" s="2"/>
-      <c r="J3"/>
-      <c r="K3" s="7"/>
-      <c r="L3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="2:14" s="24" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" s="7"/>
-      <c r="L4"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="2:14" s="24" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="8"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" s="1"/>
-      <c r="J5"/>
-      <c r="K5" s="7"/>
-      <c r="L5"/>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="2:14" s="25" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="19">
+        <v>9</v>
+      </c>
+      <c r="E15" s="31">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19">
+        <v>10</v>
+      </c>
+      <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="35">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="20">
-        <v>3</v>
-      </c>
-      <c r="E9" s="35">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20">
-        <v>4</v>
-      </c>
-      <c r="E10" s="35">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20">
-        <v>5</v>
-      </c>
-      <c r="E11" s="35">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="20">
-        <v>6</v>
-      </c>
-      <c r="E12" s="35">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="28" x14ac:dyDescent="0.15">
-      <c r="B13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="20">
-        <v>7</v>
-      </c>
-      <c r="E13" s="35">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="20">
-        <v>8</v>
-      </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="20">
-        <v>9</v>
-      </c>
-      <c r="E15" s="35">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="20">
-        <v>10</v>
-      </c>
-      <c r="E16" s="35">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F20"/>
@@ -2303,9 +2260,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="L12" r:id="rId1" display="https://www.digikey.es/es/products/detail/diodes-incorporated/2N7002W-7-F/814962" xr:uid="{23BC3602-4496-4122-8F89-95B5F2420F1F}"/>
-    <hyperlink ref="L14" r:id="rId2" xr:uid="{1F006C02-2EE0-4CD3-83D8-34EF0FE1B2F2}"/>
-    <hyperlink ref="L15" r:id="rId3" xr:uid="{2C637BD1-0E13-4321-AD15-1EAF8972A1B7}"/>
-    <hyperlink ref="L13" r:id="rId4" xr:uid="{4D06C3F9-977C-284B-A2EF-35D3D6B92967}"/>
+    <hyperlink ref="L15" r:id="rId2" xr:uid="{2C637BD1-0E13-4321-AD15-1EAF8972A1B7}"/>
+    <hyperlink ref="L13" r:id="rId3" xr:uid="{4D06C3F9-977C-284B-A2EF-35D3D6B92967}"/>
+    <hyperlink ref="L14" r:id="rId4" xr:uid="{A870D795-D922-A24F-94D9-53F3C11B49BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2317,17 +2274,17 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.5" style="18"/>
+    <col min="1" max="2" width="11.5" style="17"/>
     <col min="4" max="4" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B1"/>
@@ -2336,273 +2293,281 @@
       <c r="A2"/>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="46">
+      <c r="A4" s="41">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="50"/>
+    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="42">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="47"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
